--- a/biology/Zoologie/Courvite/Courvite.xlsx
+++ b/biology/Zoologie/Courvite/Courvite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les courvites sont des espèces d'échassiers limicoles. Les 8 ou 9 espèces de courvites
 constituent, avec le pluvian fluviatile,  une sous-famille des glaréolidés, les cursoriinés (ou Cursoriinae).
@@ -512,7 +524,9 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D’après de nombreux auteurs (dans le Handbook of Birds of the World), les glaréolidés sont subdivisés en 2 sous-familles, mais dans la classification de Sibley et Monroe, les cursoriinés sont regroupés avec les glaréolinés, les dromadinés constituant la seconde sous-famille.
 </t>
@@ -543,7 +557,9 @@
           <t>Liste alphabétique des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cursorius Latham, 1790
 Rhinoptilus Strickland, 1852 ; y compris Smutsornis Roberts, 1922</t>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Courvite à double collier — Rhinoptilus africanus (Temminck, 1807) Parfois classé dans le genre Smutsornis
 Courvite à ailes bronzées — Rhinoptilus chalcopterus (Temminck, 1824)
@@ -612,7 +630,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Rhinoptilus bitorquatus
